--- a/reports/report_1.xlsx
+++ b/reports/report_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -31,19 +31,16 @@
     <t>duration</t>
   </si>
   <si>
-    <t>Обновленко К.Ю</t>
-  </si>
-  <si>
-    <t>МИТ-14-2</t>
+    <t>Данекин А.</t>
+  </si>
+  <si>
+    <t>ММ-14-1</t>
   </si>
   <si>
     <t>Основы ООП</t>
   </si>
   <si>
-    <t>Мурадханов С.Э.</t>
-  </si>
-  <si>
-    <t>Муратова С.Э.</t>
+    <t>Сенченко А.Б.</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,24 +418,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
